--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,6 +934,32 @@
         <v>109.7599999999984</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>2015.05</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42152</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>2240</v>
+      </c>
+      <c r="E26">
+        <f>E25+D26</f>
+        <v>2349.7599999999984</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2015.06</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>提现还贷提取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度结息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,6 +963,41 @@
       <c r="A27">
         <v>2015.06</v>
       </c>
+      <c r="B27" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <f>139.74</f>
+        <v>139.74</v>
+      </c>
+      <c r="E27">
+        <f>E26+D27</f>
+        <v>2489.4999999999982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2015.06</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42185</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>2240</v>
+      </c>
+      <c r="E28">
+        <f>E27+D28</f>
+        <v>4729.4999999999982</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -999,6 +999,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>2015.07</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42212</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>2880</v>
+      </c>
+      <c r="E29">
+        <f>E28+D29</f>
+        <v>7609.4999999999982</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>年度结息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -129,7 +133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +142,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1020,6 +1027,95 @@
         <v>2</v>
       </c>
     </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>2015.08</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42241</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>2880</v>
+      </c>
+      <c r="E30">
+        <f>E29+D30</f>
+        <v>10489.499999999998</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>2015.09</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42277</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>2880</v>
+      </c>
+      <c r="E31">
+        <f>E30+D31</f>
+        <v>13369.499999999998</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>2880</v>
+      </c>
+      <c r="E32">
+        <f>E31+D32</f>
+        <v>16249.499999999998</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>2015.11</v>
+      </c>
+      <c r="B33" s="2">
+        <v>42334</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2880</v>
+      </c>
+      <c r="E33">
+        <f>E32+D33</f>
+        <v>19129.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>2015.12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,7 +959,7 @@
         <v>2240</v>
       </c>
       <c r="E26">
-        <f>E25+D26</f>
+        <f t="shared" ref="E26:E33" si="4">E25+D26</f>
         <v>2349.7599999999984</v>
       </c>
       <c r="F26" t="s">
@@ -981,7 +981,7 @@
         <v>139.74</v>
       </c>
       <c r="E27">
-        <f>E26+D27</f>
+        <f t="shared" si="4"/>
         <v>2489.4999999999982</v>
       </c>
     </row>
@@ -999,7 +999,7 @@
         <v>2240</v>
       </c>
       <c r="E28">
-        <f>E27+D28</f>
+        <f t="shared" si="4"/>
         <v>4729.4999999999982</v>
       </c>
       <c r="F28" t="s">
@@ -1020,7 +1020,7 @@
         <v>2880</v>
       </c>
       <c r="E29">
-        <f>E28+D29</f>
+        <f t="shared" si="4"/>
         <v>7609.4999999999982</v>
       </c>
       <c r="F29" t="s">
@@ -1041,7 +1041,7 @@
         <v>2880</v>
       </c>
       <c r="E30">
-        <f>E29+D30</f>
+        <f t="shared" si="4"/>
         <v>10489.499999999998</v>
       </c>
       <c r="F30" t="s">
@@ -1062,7 +1062,7 @@
         <v>2880</v>
       </c>
       <c r="E31">
-        <f>E30+D31</f>
+        <f t="shared" si="4"/>
         <v>13369.499999999998</v>
       </c>
       <c r="F31" t="s">
@@ -1083,7 +1083,7 @@
         <v>2880</v>
       </c>
       <c r="E32">
-        <f>E31+D32</f>
+        <f t="shared" si="4"/>
         <v>16249.499999999998</v>
       </c>
       <c r="F32" t="s">
@@ -1104,7 +1104,7 @@
         <v>2880</v>
       </c>
       <c r="E33">
-        <f>E32+D33</f>
+        <f t="shared" si="4"/>
         <v>19129.5</v>
       </c>
       <c r="F33" t="s">
@@ -1114,6 +1114,27 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2015.12</v>
+      </c>
+      <c r="B34" s="2">
+        <v>42362</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>2880</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34" si="5">E33+D34</f>
+        <v>22009.5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>2016.01</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1136,6 +1136,27 @@
       <c r="A35">
         <v>2016.01</v>
       </c>
+      <c r="B35" s="2">
+        <v>42049</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>2880</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35" si="6">E34+D35</f>
+        <v>24889.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>2016.02</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,6 +1157,24 @@
       <c r="A36">
         <v>2016.02</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>2880</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36" si="7">E35+D36</f>
+        <v>27769.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>2016.03</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1137,7 +1137,7 @@
         <v>2016.01</v>
       </c>
       <c r="B35" s="2">
-        <v>42049</v>
+        <v>42414</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
@@ -1157,6 +1157,9 @@
       <c r="A36">
         <v>2016.02</v>
       </c>
+      <c r="B36" s="2">
+        <v>42425</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1174,6 +1177,27 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2016.03</v>
+      </c>
+      <c r="B37" s="2">
+        <v>42459</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2880</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37" si="8">E36+D37</f>
+        <v>30649.5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>2016.04</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1188,7 +1188,7 @@
         <v>2880</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="8">E36+D37</f>
+        <f t="shared" ref="E37:E38" si="8">E36+D37</f>
         <v>30649.5</v>
       </c>
       <c r="F37" t="s">
@@ -1198,6 +1198,24 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>2016.04</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>2880</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="8"/>
+        <v>33529.5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>2016.05</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,6 +1217,24 @@
       <c r="A39">
         <v>2016.05</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>2880</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="9">E38+D39</f>
+        <v>36409.5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>2016.06</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1224,7 +1224,7 @@
         <v>2880</v>
       </c>
       <c r="E39">
-        <f t="shared" ref="E39" si="9">E38+D39</f>
+        <f t="shared" ref="E39:E40" si="9">E38+D39</f>
         <v>36409.5</v>
       </c>
       <c r="F39" t="s">
@@ -1234,6 +1234,17 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2016.06</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <f>36716-E39</f>
+        <v>306.5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>36716</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1247,6 +1247,24 @@
         <v>36716</v>
       </c>
     </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>2016.06</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>2880</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="10">E40+D41</f>
+        <v>39596</v>
+      </c>
+      <c r="F41" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1258,10 +1258,28 @@
         <v>2880</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41" si="10">E40+D41</f>
+        <f t="shared" ref="E41:E42" si="10">E40+D41</f>
         <v>39596</v>
       </c>
       <c r="F41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>2016.07</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>3080</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="10"/>
+        <v>42676</v>
+      </c>
+      <c r="F42" t="s">
         <v>2</v>
       </c>
     </row>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,7 +133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +145,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1199,6 +1202,9 @@
       <c r="A38">
         <v>2016.04</v>
       </c>
+      <c r="B38" s="2">
+        <v>42487</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
@@ -1217,6 +1223,9 @@
       <c r="A39">
         <v>2016.05</v>
       </c>
+      <c r="B39" s="2">
+        <v>42520</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
@@ -1235,22 +1244,27 @@
       <c r="A40">
         <v>2016.06</v>
       </c>
+      <c r="B40" s="2">
+        <v>42551</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D40">
-        <f>36716-E39</f>
-        <v>306.5</v>
+      <c r="D40" s="4">
+        <v>307.39999999999998</v>
       </c>
       <c r="E40">
         <f t="shared" si="9"/>
-        <v>36716</v>
+        <v>36716.9</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>2016.06</v>
       </c>
+      <c r="B41" s="2">
+        <v>42556</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1259,7 +1273,7 @@
       </c>
       <c r="E41">
         <f t="shared" ref="E41:E42" si="10">E40+D41</f>
-        <v>39596</v>
+        <v>39596.9</v>
       </c>
       <c r="F41" t="s">
         <v>2</v>
@@ -1269,6 +1283,9 @@
       <c r="A42">
         <v>2016.07</v>
       </c>
+      <c r="B42" s="2">
+        <v>42590</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
@@ -1277,9 +1294,30 @@
       </c>
       <c r="E42">
         <f t="shared" si="10"/>
-        <v>42676</v>
+        <v>42676.9</v>
       </c>
       <c r="F42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>2016.08</v>
+      </c>
+      <c r="B43" s="2">
+        <v>42607</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>3080</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="11">E42+D43</f>
+        <v>45756.9</v>
+      </c>
+      <c r="F43" t="s">
         <v>2</v>
       </c>
     </row>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.199.100\我的家\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的家\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="16">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:F43"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1321,6 +1321,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>2016.09</v>
+      </c>
+      <c r="B44" s="2">
+        <v>42641</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>3080</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44" si="12">E43+D44</f>
+        <v>48836.9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>2015.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1342,6 +1346,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2">
+        <v>42674</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>3080</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="13">E44+D45</f>
+        <v>51916.9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1367,6 +1367,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>2016.11</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42709</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>3080</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="14">E45+D46</f>
+        <v>54996.9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:F46"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,6 +1388,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>2016.12</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42734</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>3080</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47" si="15">E46+D47</f>
+        <v>58076.9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +92,48 @@
   </si>
   <si>
     <t>2016.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹平</t>
+  </si>
+  <si>
+    <t>王嘉</t>
+  </si>
+  <si>
+    <t>谭德晟</t>
+  </si>
+  <si>
+    <t>苏建超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>430281198510309119</t>
+  </si>
+  <si>
+    <t>430903198303110317</t>
+  </si>
+  <si>
+    <t>43292219770808001X</t>
+  </si>
+  <si>
+    <t>430221198412101115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201607(结息)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26913/24447.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 折算工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -152,6 +195,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,9 +1458,296 @@
         <v>2</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>2017.01</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42409</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>3080</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48" si="16">E47+D48</f>
+        <v>61156.9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>201605</v>
+      </c>
+      <c r="B3">
+        <v>54928</v>
+      </c>
+      <c r="C3">
+        <v>26083</v>
+      </c>
+      <c r="D3">
+        <v>24173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>201606</v>
+      </c>
+      <c r="B4">
+        <v>57568</v>
+      </c>
+      <c r="C4">
+        <v>29794</v>
+      </c>
+      <c r="D4">
+        <v>26513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>58213</v>
+      </c>
+      <c r="C5">
+        <f>30288</f>
+        <v>30288</v>
+      </c>
+      <c r="D5">
+        <f>24393</f>
+        <v>24393</v>
+      </c>
+      <c r="E5">
+        <f>36716</f>
+        <v>36716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>201607</v>
+      </c>
+      <c r="B6">
+        <v>60853</v>
+      </c>
+      <c r="C6">
+        <v>33999</v>
+      </c>
+      <c r="D6">
+        <v>26733</v>
+      </c>
+      <c r="E6">
+        <v>39596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>201608</v>
+      </c>
+      <c r="B7">
+        <f>63547</f>
+        <v>63547</v>
+      </c>
+      <c r="C7">
+        <f>38035</f>
+        <v>38035</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>201609</v>
+      </c>
+      <c r="B8">
+        <f>66241</f>
+        <v>66241</v>
+      </c>
+      <c r="C8">
+        <v>42071</v>
+      </c>
+      <c r="D8" s="1">
+        <f>27097</f>
+        <v>27097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>201610</v>
+      </c>
+      <c r="B9">
+        <f>68935</f>
+        <v>68935</v>
+      </c>
+      <c r="C9">
+        <f>46107</f>
+        <v>46107</v>
+      </c>
+      <c r="D9" s="1">
+        <v>27287</v>
+      </c>
+      <c r="F9">
+        <v>149531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>201611</v>
+      </c>
+      <c r="B10">
+        <f>66357</f>
+        <v>66357</v>
+      </c>
+      <c r="C10">
+        <v>50143</v>
+      </c>
+      <c r="D10" s="1">
+        <v>27481</v>
+      </c>
+      <c r="F10">
+        <v>153021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>201612</v>
+      </c>
+      <c r="C11">
+        <f>54179</f>
+        <v>54179</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11">
+        <f>156511</f>
+        <v>156511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>201701</v>
+      </c>
+      <c r="B12">
+        <f>63837</f>
+        <v>63837</v>
+      </c>
+      <c r="C12">
+        <f>58215</f>
+        <v>58215</v>
+      </c>
+      <c r="D12" s="1">
+        <f>25443</f>
+        <v>25443</v>
+      </c>
+      <c r="F12">
+        <f>160001</f>
+        <v>160001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>201702</v>
+      </c>
+      <c r="B13">
+        <f>66531</f>
+        <v>66531</v>
+      </c>
+      <c r="C13">
+        <f>24251</f>
+        <v>24251</v>
+      </c>
+      <c r="D13" s="1">
+        <f>28093</f>
+        <v>28093</v>
+      </c>
+      <c r="F13">
+        <v>163491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <f>(B7-B6)/0.24</f>
+        <v>11225</v>
+      </c>
+      <c r="C16">
+        <f>(C7-C6)/0.24</f>
+        <v>16816.666666666668</v>
+      </c>
+      <c r="D16">
+        <f>(D6-D5)/0.24</f>
+        <v>9750</v>
+      </c>
+      <c r="E16">
+        <f>(E7-E6)/0.24</f>
+        <v>12833.333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t xml:space="preserve"> 折算工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,6 +1487,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>2017.02</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42436</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>3080</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49" si="17">E48+D49</f>
+        <v>64236.9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1488,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1725,25 +1754,134 @@
         <v>163491</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>201703</v>
+      </c>
+      <c r="B14">
+        <f>66590</f>
+        <v>66590</v>
+      </c>
+      <c r="C14">
+        <f>28287</f>
+        <v>28287</v>
+      </c>
+      <c r="D14" s="1">
+        <f>28307</f>
+        <v>28307</v>
+      </c>
+      <c r="F14">
+        <f>166981</f>
+        <v>166981</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <f>(B7-B6)/0.24</f>
         <v>11225</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f>(C7-C6)/0.24</f>
         <v>16816.666666666668</v>
       </c>
-      <c r="D16">
-        <f>(D6-D5)/0.24</f>
-        <v>9750</v>
-      </c>
-      <c r="E16">
+      <c r="D17">
+        <f>(D13-D12)/0.24</f>
+        <v>11041.666666666668</v>
+      </c>
+      <c r="E17">
         <f>(E7-E6)/0.24</f>
         <v>12833.333333333334</v>
+      </c>
+      <c r="F17">
+        <f>(F14-F13)/0.24</f>
+        <v>14541.666666666668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>10500</v>
+      </c>
+      <c r="D19">
+        <v>10000</v>
+      </c>
+      <c r="E19">
+        <v>12000</v>
+      </c>
+      <c r="F19">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>12000</v>
+      </c>
+      <c r="D21">
+        <v>12500</v>
+      </c>
+      <c r="E21">
+        <v>14000</v>
+      </c>
+      <c r="F21">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <f>12-B20</f>
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f>12-D20</f>
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <f>12-E20</f>
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <f>12-F20</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <f>(B19*B20+B21*B22)/12</f>
+        <v>11125</v>
+      </c>
+      <c r="D23">
+        <f>(D19*D20+D21*D22)/12</f>
+        <v>11041.666666666666</v>
+      </c>
+      <c r="E23">
+        <f>(E19*E20+E21*E22)/12</f>
+        <v>12833.333333333334</v>
+      </c>
+      <c r="F23">
+        <f>(F19*F20+F21*F22)/12</f>
+        <v>14541.666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>2016工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66590/63954.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28307/25876.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,7 +1528,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1758,22 +1766,23 @@
       <c r="A14">
         <v>201703</v>
       </c>
-      <c r="B14">
-        <f>66590</f>
-        <v>66590</v>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C14">
         <f>28287</f>
         <v>28287</v>
       </c>
-      <c r="D14" s="1">
-        <f>28307</f>
-        <v>28307</v>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F14">
         <f>166981</f>
         <v>166981</v>
       </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D15" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,7 +1479,7 @@
         <v>2017.01</v>
       </c>
       <c r="B48" s="2">
-        <v>42409</v>
+        <v>42775</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7</v>
@@ -1500,7 +1500,7 @@
         <v>2017.02</v>
       </c>
       <c r="B49" s="2">
-        <v>42436</v>
+        <v>42801</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
@@ -1513,6 +1513,27 @@
         <v>64236.9</v>
       </c>
       <c r="F49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2017.03</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42837</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50">
+        <v>3080</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="18">E49+D50</f>
+        <v>67316.899999999994</v>
+      </c>
+      <c r="F50" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1525,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1782,114 +1803,131 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="A15">
+        <v>201704</v>
+      </c>
+      <c r="B15" s="1">
+        <v>66648</v>
+      </c>
+      <c r="C15">
+        <v>32323</v>
+      </c>
+      <c r="D15" s="1">
+        <v>28526</v>
+      </c>
+      <c r="F15" s="1">
+        <v>170471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <f>(B7-B6)/0.24</f>
         <v>11225</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f>(C7-C6)/0.24</f>
         <v>16816.666666666668</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>(D13-D12)/0.24</f>
         <v>11041.666666666668</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <f>(E7-E6)/0.24</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f>(F14-F13)/0.24</f>
         <v>14541.666666666668</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>10500</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>10000</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>12000</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>13500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>7</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>12000</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>12500</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>14000</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>16000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B22">
-        <f>12-B20</f>
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <f>12-D20</f>
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <f>12-E20</f>
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <f>12-F20</f>
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B23">
-        <f>(B19*B20+B21*B22)/12</f>
+        <f>12-B21</f>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f>12-D21</f>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f>12-E21</f>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <f>12-F21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <f>(B20*B21+B22*B23)/12</f>
         <v>11125</v>
       </c>
-      <c r="D23">
-        <f>(D19*D20+D21*D22)/12</f>
+      <c r="D24">
+        <f>(D20*D21+D22*D23)/12</f>
         <v>11041.666666666666</v>
       </c>
-      <c r="E23">
-        <f>(E19*E20+E21*E22)/12</f>
+      <c r="E24">
+        <f>(E20*E21+E22*E23)/12</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="F23">
-        <f>(F19*F20+F21*F22)/12</f>
+      <c r="F24">
+        <f>(F20*F21+F22*F23)/12</f>
         <v>14541.666666666666</v>
       </c>
     </row>

--- a/我的家/公积金.xlsx
+++ b/我的家/公积金.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="33">
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1537,6 +1537,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>2017.04</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42858</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>3080</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="19">E50+D51</f>
+        <v>70396.899999999994</v>
+      </c>
+      <c r="F51" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1820,119 +1841,138 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="A16">
+        <v>201705</v>
+      </c>
+      <c r="B16" s="1">
+        <v>66706</v>
+      </c>
+      <c r="C16">
+        <v>36359</v>
+      </c>
+      <c r="D16" s="1">
+        <f>28749</f>
+        <v>28749</v>
+      </c>
+      <c r="F16" s="1">
+        <v>173961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <f>(B7-B6)/0.24</f>
         <v>11225</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f>(C7-C6)/0.24</f>
         <v>16816.666666666668</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <f>(D13-D12)/0.24</f>
         <v>11041.666666666668</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f>(E7-E6)/0.24</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f>(F14-F13)/0.24</f>
         <v>14541.666666666668</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>10500</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>10000</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>12000</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>13500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-    </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>12000</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>12500</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>14000</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>16000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B23">
-        <f>12-B21</f>
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <f>12-D21</f>
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <f>12-E21</f>
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <f>12-F21</f>
-        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24">
-        <f>(B20*B21+B22*B23)/12</f>
+        <f>12-B22</f>
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <f>12-D22</f>
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <f>12-E22</f>
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f>12-F22</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <f>(B21*B22+B23*B24)/12</f>
         <v>11125</v>
       </c>
-      <c r="D24">
-        <f>(D20*D21+D22*D23)/12</f>
+      <c r="D25">
+        <f>(D21*D22+D23*D24)/12</f>
         <v>11041.666666666666</v>
       </c>
-      <c r="E24">
-        <f>(E20*E21+E22*E23)/12</f>
+      <c r="E25">
+        <f>(E21*E22+E23*E24)/12</f>
         <v>12833.333333333334</v>
       </c>
-      <c r="F24">
-        <f>(F20*F21+F22*F23)/12</f>
+      <c r="F25">
+        <f>(F21*F22+F23*F24)/12</f>
         <v>14541.666666666666</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>